--- a/Documentation/RiskAssessment.xlsx
+++ b/Documentation/RiskAssessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\Year2\COMP3000-Computing-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\Year3\COMP3000-Computing-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71352999-0152-41D0-983D-3260FA307C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E032CD-D9A3-4467-9C12-08EA3FFF8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System and Flows" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>System and Scope</t>
   </si>
@@ -309,18 +309,12 @@
     <t>Basic auth on API/dashboard</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
     <t>To be tested</t>
   </si>
   <si>
     <t>Pseudonymisation of IPs</t>
   </si>
   <si>
-    <t>Database user roles</t>
-  </si>
-  <si>
     <t>System updates</t>
   </si>
   <si>
@@ -333,27 +327,12 @@
     <t>Everything run locally</t>
   </si>
   <si>
-    <t>Access Control to system and tools (IDS/LLM)</t>
-  </si>
-  <si>
     <t>To be Tested</t>
   </si>
   <si>
-    <t>Planned. Would need to be enforced on company host.</t>
-  </si>
-  <si>
-    <t>Planned for storing and transmission in DB. Most likely will need it displayed on dashboard.</t>
-  </si>
-  <si>
     <t>Patch Docker images regularly, IDS, LLM, Python.</t>
   </si>
   <si>
-    <t>Least-privilege accounts.</t>
-  </si>
-  <si>
-    <t>Truncate or hash IP addresses.</t>
-  </si>
-  <si>
     <t>Restricts access.</t>
   </si>
   <si>
@@ -387,15 +366,9 @@
     <t>IP data exposes personal info</t>
   </si>
   <si>
-    <t>DB compromise</t>
-  </si>
-  <si>
     <t>Prompt injection or malicious input</t>
   </si>
   <si>
-    <t>Data loss</t>
-  </si>
-  <si>
     <t>Downtime or service failure</t>
   </si>
   <si>
@@ -417,12 +390,6 @@
     <t>IP anonymisation, stored locally.</t>
   </si>
   <si>
-    <t>Unauthorised LLM, IDS or dashboard access</t>
-  </si>
-  <si>
-    <t>Auth / Access Controls</t>
-  </si>
-  <si>
     <t>Implement JWT/API-key login. Access controls locally.</t>
   </si>
   <si>
@@ -441,9 +408,6 @@
     <t>Non-compliance with GDPR / Computer Misuse</t>
   </si>
   <si>
-    <t>Only Admin login.</t>
-  </si>
-  <si>
     <t>Validate all logs before / after LLM processing</t>
   </si>
   <si>
@@ -453,19 +417,115 @@
     <t xml:space="preserve">Backups </t>
   </si>
   <si>
-    <t>Monitor uptime, add healthchecks, updates scheduled a low volume times.</t>
-  </si>
-  <si>
-    <t>Monitoring.</t>
-  </si>
-  <si>
     <t>Sanitise model inputs.</t>
   </si>
   <si>
-    <t>Ethical review.</t>
-  </si>
-  <si>
-    <t>Document compliance steps.</t>
+    <t xml:space="preserve">Access Control </t>
+  </si>
+  <si>
+    <t>RBAC for system access. Principle of least pivilege.</t>
+  </si>
+  <si>
+    <t>Truncate or hash IP addresses before storing.</t>
+  </si>
+  <si>
+    <t>To be configured</t>
+  </si>
+  <si>
+    <t>Database Security</t>
+  </si>
+  <si>
+    <t>Least-privilege accounts , encryption at rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Sanitisation and validation </t>
+  </si>
+  <si>
+    <t>Validate and sanitise all logs before entering LLM.</t>
+  </si>
+  <si>
+    <t>To be verified</t>
+  </si>
+  <si>
+    <t>Logging and monitoring</t>
+  </si>
+  <si>
+    <t>System healthchecks and logs for user actions.</t>
+  </si>
+  <si>
+    <t>Backup and Recovery</t>
+  </si>
+  <si>
+    <t>Regular backups of database and critical  files</t>
+  </si>
+  <si>
+    <t>Unauthorised LLM, IDS, dashboard, db access</t>
+  </si>
+  <si>
+    <t>Data loss or corruption</t>
+  </si>
+  <si>
+    <t>Supply chain risks</t>
+  </si>
+  <si>
+    <t>Insufficient Logging</t>
+  </si>
+  <si>
+    <t>User Error or misconfig</t>
+  </si>
+  <si>
+    <t>Ethical Misuse of tools</t>
+  </si>
+  <si>
+    <t>Access controls, policies</t>
+  </si>
+  <si>
+    <t>Training and documentation</t>
+  </si>
+  <si>
+    <t>Audit Logging</t>
+  </si>
+  <si>
+    <t>System updates, vulnerability scanning</t>
+  </si>
+  <si>
+    <t>Ethical review, documentation</t>
+  </si>
+  <si>
+    <t>Monitoring, healthchecks</t>
+  </si>
+  <si>
+    <t>Auth / Access Controls,docker isolation</t>
+  </si>
+  <si>
+    <t>Restrict tool access to authorised users. Define and communicate acceptable use policy</t>
+  </si>
+  <si>
+    <t>Clear documentation for setup and use. Configuration to avoid manual errors.</t>
+  </si>
+  <si>
+    <t>Access to tools are logged to a secure separate location</t>
+  </si>
+  <si>
+    <t>Trusted docker images, regular scans.</t>
+  </si>
+  <si>
+    <t>Ethical review, Document compliance steps.</t>
+  </si>
+  <si>
+    <t>Monitor uptime, add healthchecks, updates scheduled at low volume times.</t>
+  </si>
+  <si>
+    <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>Third party risks (docker images, pre-trained LLM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People </t>
+  </si>
+  <si>
+    <t>Lack of user training and lack of incident response plan for if the tool got compromised</t>
   </si>
 </sst>
 </file>
@@ -716,6 +776,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,63 +836,15 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,7 +855,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,10 +1159,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -1146,10 +1206,10 @@
     </row>
     <row r="5" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -1263,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2421049-7AF6-42F8-B734-0668CE91377A}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,245 +1342,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="22" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="13">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="13">
         <v>4</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="13">
         <v>8</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="13">
         <v>7</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="13">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="13">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>7</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>5</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>8</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E12" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="B12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="13">
         <v>2</v>
       </c>
       <c r="G12" s="34">
         <v>10</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>135</v>
-      </c>
+      <c r="I12" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>5</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>8</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1534,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C07E0D-3A7F-4BB7-9698-EFE7BD5293CA}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,148 +1682,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="E11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="E12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="26" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>91</v>
+      <c r="E13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1704,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F14EF1-DEFD-4AA1-BC20-40FF358A7C30}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1723,245 +1906,315 @@
   <sheetData>
     <row r="2" spans="2:9" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="21">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>10</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>7</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="27" t="s">
+      <c r="C9" s="21">
+        <v>5</v>
+      </c>
+      <c r="D9" s="21">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="29">
+    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="21">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="D4" s="29">
-        <v>7</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="29">
-        <v>4</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="21">
         <v>8</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="29">
-        <v>2</v>
-      </c>
-      <c r="D6" s="29">
-        <v>10</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="E14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="29">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29">
-        <v>10</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29">
-        <v>7</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="29">
-        <v>2</v>
-      </c>
-      <c r="D9" s="29">
-        <v>5</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="29">
-        <v>5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>8</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="29">
-        <v>2</v>
-      </c>
-      <c r="D11" s="29">
-        <v>10</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>98</v>
-      </c>
+      <c r="F14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/RiskAssessment.xlsx
+++ b/Documentation/RiskAssessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\Year3\COMP3000-Computing-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E032CD-D9A3-4467-9C12-08EA3FFF8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439FC0F-5118-4C6E-AA2A-086D9D4FBFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System and Flows" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
   <si>
     <t>System and Scope</t>
   </si>
@@ -504,9 +504,6 @@
     <t>Clear documentation for setup and use. Configuration to avoid manual errors.</t>
   </si>
   <si>
-    <t>Access to tools are logged to a secure separate location</t>
-  </si>
-  <si>
     <t>Trusted docker images, regular scans.</t>
   </si>
   <si>
@@ -526,6 +523,24 @@
   </si>
   <si>
     <t>Lack of user training and lack of incident response plan for if the tool got compromised</t>
+  </si>
+  <si>
+    <t>Tools could be used unethically (e.g., privacy violations)</t>
+  </si>
+  <si>
+    <t>Used for testing only</t>
+  </si>
+  <si>
+    <t>Limited logging makes it harder to detect, investigate, or respond to issues. Access to tools are logged to a secure separate location</t>
+  </si>
+  <si>
+    <t>Misconfigurations or mistakes by users can cause outages or security issues</t>
+  </si>
+  <si>
+    <t>Limited logging makes it harder to detect, investigate, or respond to issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependencies on third-party vendors or libraries could fail or be compromised, affecting system stability and security. </t>
   </si>
 </sst>
 </file>
@@ -824,6 +839,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,10 +1174,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -1206,10 +1221,10 @@
     </row>
     <row r="5" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -1309,7 +1324,9 @@
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1325,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2421049-7AF6-42F8-B734-0668CE91377A}">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,21 +1359,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -1550,10 +1567,10 @@
     </row>
     <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>68</v>
@@ -1573,10 +1590,10 @@
     </row>
     <row r="12" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>123</v>
@@ -1584,7 +1601,7 @@
       <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="24">
         <v>10</v>
       </c>
       <c r="H12" s="23" t="s">
@@ -1594,7 +1611,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E13" s="23" t="s">
         <v>145</v>
       </c>
@@ -1607,9 +1624,11 @@
       <c r="H13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E14" s="23" t="s">
         <v>146</v>
       </c>
@@ -1622,7 +1641,9 @@
       <c r="H14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E15" s="23" t="s">
@@ -1637,7 +1658,9 @@
       <c r="H15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E16" s="23" t="s">
@@ -1652,7 +1675,9 @@
       <c r="H16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1682,13 +1707,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
@@ -1889,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F14EF1-DEFD-4AA1-BC20-40FF358A7C30}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,12 +1930,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -2088,7 +2113,7 @@
         <v>110</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>116</v>
@@ -2114,7 +2139,7 @@
         <v>110</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>96</v>
@@ -2140,11 +2165,13 @@
         <v>110</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>146</v>
       </c>
@@ -2164,9 +2191,11 @@
         <v>110</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
@@ -2190,7 +2219,9 @@
       <c r="H13" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
@@ -2214,7 +2245,9 @@
       <c r="H14" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
